--- a/src/main/resources/templates/xlsx/1차전형결과.xlsx
+++ b/src/main/resources/templates/xlsx/1차전형결과.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gimhanul/maru/src/main/resources/templates/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeon-yujin/Documents/workspace/backend/springboot/maru/src/main/resources/templates/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0C799B-4499-0345-B6BC-CB2B85FC3FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851CB714-6559-5E4A-832A-5C8BB5C4FBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="6400" windowWidth="30240" windowHeight="17800" xr2:uid="{7690012B-BFFA-3C48-824D-509550F219F4}"/>
+    <workbookView xWindow="15240" yWindow="740" windowWidth="15000" windowHeight="18900" xr2:uid="{7690012B-BFFA-3C48-824D-509550F219F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>수험번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,10 @@
   </si>
   <si>
     <t>학교 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -266,9 +270,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -306,7 +310,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -412,7 +416,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -554,7 +558,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -562,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8EB960-16E4-4546-BE22-CABF45F1D2EB}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -575,16 +579,17 @@
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" customWidth="1"/>
+    <col min="13" max="15" width="9" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" customHeight="1">
+    <row r="1" spans="1:17" ht="30" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -605,16 +610,17 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="5"/>
     </row>
-    <row r="2" spans="1:16" ht="30" customHeight="1">
+    <row r="2" spans="1:17" ht="30" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="1" t="s">
@@ -631,41 +637,44 @@
         <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="L1:P1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
